--- a/Output.xlsx
+++ b/Output.xlsx
@@ -6,8 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="One Way" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Return" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Return" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -15,90 +14,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <x:si>
-    <x:t>Pricing</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <x:si>
+    <x:t>Timing</x:t>
   </x:si>
   <x:si>
     <x:t>Duration</x:t>
   </x:si>
   <x:si>
-    <x:t>Timing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹2,499</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55m (Direct)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20:05 - 21:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹3,139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45m (Direct)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10:10 - 10:55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16:45 - 17:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:25 - 19:10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹3,242</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1h 5m (Direct)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15:20 - 16:25</x:t>
-  </x:si>
-  <x:si>
     <x:t>Price</x:t>
   </x:si>
   <x:si>
+    <x:t>16:25 - 18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1h 35m (Direct)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>₹10,987</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10:30 - 12:10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1h 40m (Direct)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>₹9,643</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20:40 - 22:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>₹10,264</x:t>
+  </x:si>
+  <x:si>
     <x:t>06:30 - 08:05</x:t>
   </x:si>
   <x:si>
-    <x:t>1h 35m (Direct)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹10,654</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16:25 - 18:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹12,499</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10:30 - 12:10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1h 40m (Direct)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹14,478</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11:00 - 12:50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1h 50m (Direct)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹15,663</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09:25 - 11:15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>₹9,130</x:t>
+    <x:t>₹11,846</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:20 - 12:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4h 30m (1 stop)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>₹14,403</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17:05 - 12:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19h 45m (1 stop)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13:20 - 12:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23h 30m (1 stop)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22:10 - 12:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14h 40m (1 stop)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>₹14,660</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22:25 - 21:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>₹15,096</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -449,7 +439,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C6"/>
+  <x:dimension ref="A1:C2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -490,21 +480,21 @@
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>10</x:v>
@@ -515,96 +505,65 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:C2"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:3">
-      <x:c r="A1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="B7" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="B8" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="B9" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="B10" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="0" t="s">
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="B11" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="A6" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>27</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
